--- a/Excel Workbooks/100/100Pi4.xlsx
+++ b/Excel Workbooks/100/100Pi4.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\StatsProject\Excel Workbooks\100\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F2AB1C-24EC-4DAC-9388-64E473898497}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +84,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +222,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +415,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,40 +441,40 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.09873946070223016</v>
+        <v>9.8739460702230164E-2</v>
       </c>
       <c r="B2">
-        <v>0.9625624027199864</v>
+        <v>0.96256240271998639</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>-0.1815926535897932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.18159265358979321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.1815190972054973</v>
       </c>
       <c r="B3">
-        <v>0.896161655167366</v>
+        <v>0.89616165516736601</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>-5.780273689597959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-5.7802736895979594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.124213375475943</v>
+        <v>0.12421337547594299</v>
       </c>
       <c r="B4">
-        <v>0.8984486689568009</v>
+        <v>0.89844866895680087</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -428,343 +483,343 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.04325778474700803</v>
+        <v>4.3257784747008032E-2</v>
       </c>
       <c r="B5">
-        <v>0.2108913874865443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.21089138748654429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.5584587233005175</v>
+        <v>0.55845872330051749</v>
       </c>
       <c r="B6">
         <v>0.1135806978878966</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.4731733575322137</v>
+        <v>0.47317335753221368</v>
       </c>
       <c r="B7">
-        <v>0.8699625418254092</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.86996254182540922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.3016599443614361</v>
+        <v>0.30165994436143612</v>
       </c>
       <c r="B8">
-        <v>0.9227560963115924</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.92275609631159239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.8636179439366435</v>
+        <v>0.86361794393664348</v>
       </c>
       <c r="B9">
         <v>0.1200929817292069</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.9257454173934024</v>
+        <v>0.92574541739340244</v>
       </c>
       <c r="B10">
-        <v>0.1574701546230539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.15747015462305389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.001857168780821539</v>
+        <v>1.8571687808215389E-3</v>
       </c>
       <c r="B11">
-        <v>0.4614304223924379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.46143042239243792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.3450176433714691</v>
+        <v>0.34501764337146912</v>
       </c>
       <c r="B12">
-        <v>0.6134043334225647</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.61340433342256473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.4560197604972451</v>
+        <v>0.45601976049724507</v>
       </c>
       <c r="B13">
-        <v>0.3457976615498985</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.34579766154989849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.8854991784630896</v>
+        <v>0.88549917846308956</v>
       </c>
       <c r="B14">
-        <v>0.560919071393538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.56091907139353803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.4767591192420703</v>
+        <v>0.47675911924207032</v>
       </c>
       <c r="B15">
-        <v>0.9804393977910587</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.98043939779105871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.3102277394217958</v>
+        <v>0.31022773942179582</v>
       </c>
       <c r="B16">
-        <v>0.4965215619060275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.49652156190602748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.656098809985363</v>
+        <v>0.65609880998536296</v>
       </c>
       <c r="B17">
-        <v>0.5492858583267912</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.54928585832679122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.5630651601309076</v>
+        <v>0.56306516013090757</v>
       </c>
       <c r="B18">
-        <v>0.2416609760736005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.24166097607360049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.4556623042921488</v>
+        <v>0.45566230429214882</v>
       </c>
       <c r="B19">
-        <v>0.1687001284041039</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.16870012840410389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.3883759079958675</v>
+        <v>0.38837590799586752</v>
       </c>
       <c r="B20">
         <v>0.2063020403712934</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.1161247030892968</v>
       </c>
       <c r="B21">
-        <v>0.7064937527528545</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.70649375275285453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.3729675775977186</v>
+        <v>0.37296757759771859</v>
       </c>
       <c r="B22">
-        <v>0.4837802527138935</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.48378025271389352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.7732774849680729</v>
+        <v>0.77327748496807291</v>
       </c>
       <c r="B23">
-        <v>0.7141560196065462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.71415601960654618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.4453783872180409</v>
+        <v>0.44537838721804091</v>
       </c>
       <c r="B24">
-        <v>0.9264179991474027</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.92641799914740275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.6431518934145812</v>
+        <v>0.64315189341458123</v>
       </c>
       <c r="B25">
         <v>0.9399483104739742</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.04631189156547777</v>
+        <v>4.631189156547777E-2</v>
       </c>
       <c r="B26">
-        <v>0.8043235994508661</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.80432359945086607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.07067040239001832</v>
+        <v>7.0670402390018316E-2</v>
       </c>
       <c r="B27">
-        <v>0.6751058552797555</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.67510585527975553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.09653054197374755</v>
+        <v>9.6530541973747552E-2</v>
       </c>
       <c r="B28">
-        <v>0.3880005845547522</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.38800058455475223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.8931045278447994</v>
+        <v>0.89310452784479943</v>
       </c>
       <c r="B29">
-        <v>0.841677072048666</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.84167707204866604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.8236812237788071</v>
+        <v>0.82368122377880715</v>
       </c>
       <c r="B30">
-        <v>0.1987191877774473</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.19871918777744729</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.9538103517894265</v>
+        <v>0.95381035178942652</v>
       </c>
       <c r="B31">
-        <v>0.3721429536415711</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.37214295364157107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5263793922539427</v>
       </c>
       <c r="B32">
-        <v>0.9280989682241875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.92809896822418747</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.8022414617436197</v>
+        <v>0.80224146174361965</v>
       </c>
       <c r="B33">
         <v>0.5613915466684144</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.2344041294336058</v>
+        <v>0.23440412943360581</v>
       </c>
       <c r="B34">
-        <v>0.483378688130824</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.48337868813082402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.677425812196215</v>
       </c>
       <c r="B35">
-        <v>0.5626658000371001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.56266580003710009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.467431953412449</v>
+        <v>0.46743195341244898</v>
       </c>
       <c r="B36">
-        <v>0.3896371703862704</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.38963717038627038</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.9946933473386965</v>
+        <v>0.99469334733869652</v>
       </c>
       <c r="B37">
-        <v>0.9685911223905777</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.96859112239057765</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.9883688994177597</v>
+        <v>0.98836889941775974</v>
       </c>
       <c r="B38">
-        <v>0.6727049320943166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.67270493209431659</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.6807798617166271</v>
+        <v>0.68077986171662708</v>
       </c>
       <c r="B39">
         <v>0.5707568938755605</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.9034754606829575</v>
+        <v>0.90347546068295748</v>
       </c>
       <c r="B40">
-        <v>0.7542832943594787</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.75428329435947872</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.1902332315957186</v>
+        <v>0.19023323159571859</v>
       </c>
       <c r="B41">
-        <v>0.1619514932173401</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.16195149321734009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.451555634711743</v>
+        <v>0.45155563471174298</v>
       </c>
       <c r="B42">
-        <v>0.3662880014455405</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.36628800144554052</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.03977417773753766</v>
+        <v>3.9774177737537657E-2</v>
       </c>
       <c r="B43">
-        <v>0.8438110282593443</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.84381102825934429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.2029461857813093</v>
       </c>
       <c r="B44">
-        <v>0.4310839671850178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.43108396718501779</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.493561553453447</v>
+        <v>0.49356155345344699</v>
       </c>
       <c r="B45">
-        <v>0.1058149438025495</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.10581494380254949</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.9699752932014408</v>
+        <v>0.96997529320144082</v>
       </c>
       <c r="B46">
-        <v>0.7818352772035094</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.78183527720350943</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.1787901556265836</v>
       </c>
@@ -772,436 +827,436 @@
         <v>0.1006880561274109</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.7120040909305879</v>
+        <v>0.71200409093058792</v>
       </c>
       <c r="B48">
-        <v>0.4685904464793039</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.46859044647930392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.7790619680620979</v>
+        <v>0.77906196806209793</v>
       </c>
       <c r="B49">
-        <v>0.01152015116072413</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>1.1520151160724129E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.1612178450846907</v>
       </c>
       <c r="B50">
-        <v>0.5994139939855189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.59941399398551887</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.1623627069305972</v>
+        <v>0.16236270693059721</v>
       </c>
       <c r="B51">
-        <v>0.5165476549654083</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.51654765496540833</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.6431588973830705</v>
+        <v>0.64315889738307053</v>
       </c>
       <c r="B52">
-        <v>0.7763174555799782</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.77631745557997822</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.1187567631763073</v>
       </c>
       <c r="B53">
-        <v>0.896979591954547</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.89697959195454702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.6586040486680609</v>
+        <v>0.65860404866806088</v>
       </c>
       <c r="B54">
         <v>0.1144165723675766</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.1089418338041718</v>
       </c>
       <c r="B55">
-        <v>0.8891944284797413</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.88919442847974128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.795751410972755</v>
+        <v>0.79575141097275504</v>
       </c>
       <c r="B56">
-        <v>0.9680273835718182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.96802738357181817</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.2504342021468041</v>
+        <v>0.25043420214680412</v>
       </c>
       <c r="B57">
-        <v>0.430426250874353</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.43042625087435299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.8858372184812884</v>
+        <v>0.88583721848128838</v>
       </c>
       <c r="B58">
-        <v>0.008783048722487918</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>8.7830487224879183E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.3848383836449581</v>
+        <v>0.38483838364495809</v>
       </c>
       <c r="B59">
-        <v>0.6772873249267787</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.67728732492677868</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.3521564378493456</v>
+        <v>0.35215643784934558</v>
       </c>
       <c r="B60">
-        <v>0.9534483915323891</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.95344839153238914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.7540115903640399</v>
+        <v>0.75401159036403986</v>
       </c>
       <c r="B61">
-        <v>0.5359114777118529</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.53591147771185288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.8037500535437005</v>
+        <v>0.80375005354370055</v>
       </c>
       <c r="B62">
-        <v>0.5067868408608754</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.50678684086087544</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.1639274594907706</v>
+        <v>0.16392745949077059</v>
       </c>
       <c r="B63">
         <v>0.1683360157633671</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.6786411571384452</v>
+        <v>0.67864115713844519</v>
       </c>
       <c r="B64">
-        <v>0.6979723155329953</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.69797231553299532</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.06188301316040545</v>
+        <v>6.1883013160405453E-2</v>
       </c>
       <c r="B65">
-        <v>0.2117654248709615</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.21176542487096151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.08984019044523128</v>
+        <v>8.9840190445231283E-2</v>
       </c>
       <c r="B66">
-        <v>0.9402718778437293</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.94027187784372934</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.7114909087760156</v>
+        <v>0.71149090877601562</v>
       </c>
       <c r="B67">
-        <v>0.6592128729023493</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.65921287290234931</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.67929755451105</v>
+        <v>0.67929755451105001</v>
       </c>
       <c r="B68">
-        <v>0.375701454393354</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.37570145439335401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.1799275864030976</v>
+        <v>0.17992758640309761</v>
       </c>
       <c r="B69">
-        <v>0.6373788492480892</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.63737884924808919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.9616049044534311</v>
+        <v>0.96160490445343105</v>
       </c>
       <c r="B70">
-        <v>0.1889758985945111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.18897589859451111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.7017947380731648</v>
+        <v>0.70179473807316484</v>
       </c>
       <c r="B71">
-        <v>0.3017478962984805</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.30174789629848048</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.4463536985730614</v>
       </c>
       <c r="B72">
-        <v>0.6844873648605342</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.68448736486053419</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.9577368735083396</v>
+        <v>0.95773687350833958</v>
       </c>
       <c r="B73">
-        <v>0.1438950452293306</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.14389504522933061</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.8031948825675458</v>
+        <v>0.80319488256754579</v>
       </c>
       <c r="B74">
-        <v>0.07188065620184647</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>7.1880656201846471E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.347657748195606</v>
+        <v>0.34765774819560602</v>
       </c>
       <c r="B75">
-        <v>0.8248591833392673</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.82485918333926733</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.7830180661688594</v>
+        <v>0.78301806616885938</v>
       </c>
       <c r="B76">
-        <v>0.9822133585673483</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.98221335856734826</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.8335293369072478</v>
+        <v>0.83352933690724784</v>
       </c>
       <c r="B77">
-        <v>0.8744100792675344</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.87441007926753445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.439222129180686</v>
+        <v>0.43922212918068598</v>
       </c>
       <c r="B78">
-        <v>0.1786855038779218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.17868550387792179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.708463249798417</v>
+        <v>0.70846324979841702</v>
       </c>
       <c r="B79">
-        <v>0.8605639170247321</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.86056391702473212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.9194148994490871</v>
+        <v>0.91941489944908705</v>
       </c>
       <c r="B80">
-        <v>0.6651201137426412</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.66512011374264124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.2817199437399007</v>
+        <v>0.28171994373990072</v>
       </c>
       <c r="B81">
-        <v>0.5224674214350434</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.52246742143504343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.2995975467213858</v>
+        <v>0.29959754672138578</v>
       </c>
       <c r="B82">
         <v>0.3656888711295011</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.349640224265093</v>
       </c>
       <c r="B83">
-        <v>0.02042389253417143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>2.0423892534171428E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.3416968374436892</v>
+        <v>0.34169683744368923</v>
       </c>
       <c r="B84">
-        <v>0.08670907809888651</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>8.6709078098886505E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.6281719376138392</v>
+        <v>0.62817193761383916</v>
       </c>
       <c r="B85">
         <v>0.1366789176066836</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.3479228867884062</v>
+        <v>0.34792288678840622</v>
       </c>
       <c r="B86">
-        <v>0.387378770950587</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.38737877095058698</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.5685585916833955</v>
+        <v>0.56855859168339551</v>
       </c>
       <c r="B87">
-        <v>0.8309996722245017</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.83099967222450166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.7406485170261101</v>
+        <v>0.74064851702611012</v>
       </c>
       <c r="B88">
-        <v>0.7998612001333196</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.79986120013331963</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.4352879324393616</v>
+        <v>0.43528793243936159</v>
       </c>
       <c r="B89">
-        <v>0.1586989874432977</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.15869898744329769</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.6564003388289975</v>
+        <v>0.65640033882899751</v>
       </c>
       <c r="B90">
-        <v>0.08394162461560439</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>8.3941624615604393E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.7975516476553165</v>
       </c>
       <c r="B91">
-        <v>0.468660788574692</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.46866078857469201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.7373252622219457</v>
+        <v>0.73732526222194572</v>
       </c>
       <c r="B92">
-        <v>0.9434430647939294</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.94344306479392936</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.08407757600812904</v>
+        <v>8.407757600812904E-2</v>
       </c>
       <c r="B93">
-        <v>0.998881290693541</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.99888129069354104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.312817365988709</v>
+        <v>0.31281736598870902</v>
       </c>
       <c r="B94">
-        <v>0.8552416947120617</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.85524169471206168</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.913028488781757</v>
+        <v>0.91302848878175702</v>
       </c>
       <c r="B95">
-        <v>0.7500003967267606</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.75000039672676055</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.4168266637649954</v>
+        <v>0.41682666376499539</v>
       </c>
       <c r="B96">
-        <v>0.9166472505613107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>0.91664725056131069</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.1610450844879451</v>
+        <v>0.16104508448794511</v>
       </c>
       <c r="B97">
-        <v>0.9065178644009966</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.90651786440099658</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.6293226205276515</v>
+        <v>0.62932262052765153</v>
       </c>
       <c r="B98">
-        <v>0.9651587071788627</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.96515870717886265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.428434692147003</v>
+        <v>0.42843469214700303</v>
       </c>
       <c r="B99">
-        <v>0.01003040831729385</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>1.003040831729385E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.879040250303428</v>
+        <v>0.87904025030342803</v>
       </c>
       <c r="B100">
-        <v>0.3639246847376438</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.36392468473764378</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.6983756155534114</v>
+        <v>0.69837561555341143</v>
       </c>
       <c r="B101">
-        <v>0.2576490739244504</v>
+        <v>0.25764907392445041</v>
       </c>
     </row>
   </sheetData>
